--- a/biology/Zoologie/Heliconius_hermathena/Heliconius_hermathena.xlsx
+++ b/biology/Zoologie/Heliconius_hermathena/Heliconius_hermathena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius hermathena est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,11 +523,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Heliconius hermathena a été décrit par William Chapman Hewitson en 1853 sous le nom initial d' Holiconia hermathena[1].
-Sous-espèces
-Heliconius hermathena hermathena
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius hermathena a été décrit par William Chapman Hewitson en 1853 sous le nom initial d' Holiconia hermathena.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Heliconius_hermathena</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_hermathena</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Heliconius hermathena hermathena
 Heliconius hermathena duckei Brown &amp; Benson, 1977; présent au Brésil.
 Heliconius hermathena renatae Brown &amp; Fernández, 1984; présent au Venezuela.
 Heliconius hermathena sabinae Neukirchen, 1992; présent au Brésil.
@@ -524,31 +573,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Heliconius_hermathena</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Heliconius_hermathena</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius hermathena est un grand papillon noir, au corps fin et aux longues ailes antérieures allongées à l'apex arrondi et au bord interne légèrement concave.
 Le dessus présente une ornementation variable, les ailes antérieure sont barrées d'une large bande orange partant du milieu du bord costal. Les ailes postérieures, sauf chez Heliconius hermathena vereatta ont une ornementation jaune pâle constituée d'une ligne submarginale de petits points et d'une seconde qui lui est parallèle ainsi que d'une large bande du bord interne près de la base à distance de l'apex.
@@ -557,73 +608,45 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Heliconius_hermathena</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Heliconius_hermathena</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Passifloraceae (Astrophea)[2].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Passifloraceae (Astrophea).
 Sur les autres projets Wikimedia :
 Heliconius hermathena, sur Wikimedia CommonsHeliconius hermathena, sur Wikispecies
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Heliconius_hermathena</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_hermathena</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius hermathena est présent au Venezuela et au Brésil[1]. Il est déclaré présent dans tout le bassin amazonien[2]. Cependant sa présence au Surinam, en Guyana et en Guyane reste à confirmer.
-Biotope
-Heliconius hermathena réside dans les broussailles jusqu'à 1 000 m d'altitude[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -645,10 +668,82 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius hermathena est présent au Venezuela et au Brésil. Il est déclaré présent dans tout le bassin amazonien. Cependant sa présence au Surinam, en Guyana et en Guyane reste à confirmer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_hermathena</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_hermathena</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius hermathena réside dans les broussailles jusqu'à 1 000 m d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_hermathena</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_hermathena</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
